--- a/Assets/Designs/General/GuildInfo.xlsx
+++ b/Assets/Designs/General/GuildInfo.xlsx
@@ -11,7 +11,20 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,58 +43,58 @@
     <t>string</t>
   </si>
   <si>
-    <t>You</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
+    <t>PlayerTeam</t>
+  </si>
+  <si>
+    <t>OtherTeamB</t>
+  </si>
+  <si>
+    <t>OtherTeamC</t>
+  </si>
+  <si>
+    <t>OtherTeamD</t>
+  </si>
+  <si>
+    <t>OtherTeamE</t>
+  </si>
+  <si>
+    <t>OtherTeamF</t>
+  </si>
+  <si>
+    <t>OtherTeamG</t>
+  </si>
+  <si>
+    <t>OtherTeamH</t>
+  </si>
+  <si>
+    <t>OtherTeamI</t>
+  </si>
+  <si>
+    <t>OtherTeamJ</t>
+  </si>
+  <si>
+    <t>OtherTeamK</t>
+  </si>
+  <si>
+    <t>OtherTeamL</t>
+  </si>
+  <si>
+    <t>OtherTeamM</t>
+  </si>
+  <si>
+    <t>OtherTeamN</t>
+  </si>
+  <si>
+    <t>OtherTeamO</t>
+  </si>
+  <si>
+    <t>OtherTeamP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1021,7 +1034,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1048,7 +1061,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -1056,7 +1069,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1064,7 +1077,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1072,7 +1085,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1080,7 +1093,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1088,7 +1101,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1096,7 +1109,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1104,7 +1117,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1112,7 +1125,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1120,7 +1133,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1128,7 +1141,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1136,7 +1149,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1144,7 +1157,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1152,7 +1165,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1160,7 +1173,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1168,7 +1181,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
